--- a/MATLAB/res/VSD_SubjectsFromJSON.xlsx
+++ b/MATLAB/res/VSD_SubjectsFromJSON.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E46624-2F2E-47BF-A6B3-FD44A1C0F27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96A169C-5347-418D-ACB0-4C00188FA145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5370" yWindow="630" windowWidth="21315" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VSD_Subjects" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>Age</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Height</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>002</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>019</t>
   </si>
   <si>
+    <t>023</t>
+  </si>
+  <si>
     <t>z001</t>
   </si>
   <si>
@@ -167,9 +173,6 @@
   </si>
   <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -226,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -239,6 +242,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -579,30 +585,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F30"/>
+  <dimension ref="B2:F31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -614,13 +618,13 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5">
         <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1">
         <v>75</v>
@@ -631,13 +635,13 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5">
         <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1">
         <v>90</v>
@@ -648,13 +652,13 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5">
         <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1">
         <v>54</v>
@@ -665,13 +669,13 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5">
         <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1">
         <v>65</v>
@@ -682,13 +686,13 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5">
         <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1">
         <v>78</v>
@@ -699,13 +703,13 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5">
         <v>95</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1">
         <v>60</v>
@@ -716,13 +720,13 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5">
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1">
         <v>59</v>
@@ -733,13 +737,13 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="5">
         <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1">
         <v>68</v>
@@ -750,327 +754,344 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="5">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="1">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1">
-        <v>82.3</v>
+        <v>87</v>
       </c>
       <c r="F12" s="1">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="5">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1">
-        <v>74</v>
+        <v>82.3</v>
       </c>
       <c r="F13" s="1">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="5">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1">
-        <v>56.3</v>
+        <v>74</v>
       </c>
       <c r="F14" s="1">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="5">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="1">
-        <v>71.3</v>
+        <v>56.3</v>
       </c>
       <c r="F15" s="1">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="5">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="1">
-        <v>61</v>
+        <v>71.3</v>
       </c>
       <c r="F16" s="1">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="5">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E17" s="1">
-        <v>51.5</v>
+        <v>61</v>
       </c>
       <c r="F17" s="1">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="5">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E18" s="1">
-        <v>50.45</v>
+        <v>51.5</v>
       </c>
       <c r="F18" s="1">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="5">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E19" s="1">
+        <v>50.45</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.68</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="5">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="1">
-        <v>53.4</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1.69</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="5">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1">
-        <v>72</v>
+        <v>53.4</v>
       </c>
       <c r="F21" s="1">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="5">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E22" s="1">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F22" s="1">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" s="5">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E23" s="1">
-        <v>73.400000000000006</v>
+        <v>87</v>
       </c>
       <c r="F23" s="1">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="5">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E24" s="1">
-        <v>73</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="F24" s="1">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" s="5">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E25" s="1">
-        <v>81.8</v>
+        <v>73</v>
       </c>
       <c r="F25" s="1">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" s="5">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="E26" s="1">
+        <v>81.8</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.87</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="1">
-        <v>37.4</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1.8</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="1">
-        <v>43</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="C28" s="5">
+        <v>39</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E28" s="1">
-        <v>76.95</v>
+        <v>37.4</v>
       </c>
       <c r="F28" s="1">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="1">
-        <v>69</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C29" s="5">
+        <v>43</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="1">
+        <v>76.95</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1.77</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="1">
-        <v>48</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+      <c r="C30" s="5">
+        <v>69</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="5">
+        <v>48</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:F27" xr:uid="{00000000-0009-0000-0000-000000000000}">

--- a/MATLAB/res/VSD_SubjectsFromJSON.xlsx
+++ b/MATLAB/res/VSD_SubjectsFromJSON.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96A169C-5347-418D-ACB0-4C00188FA145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9A0A7C-1590-4429-A0BD-904725C91B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="630" windowWidth="21315" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VSD_Subjects" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VSD_Subjects!$B$2:$F$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VSD_Subjects!$B$2:$F$31</definedName>
     <definedName name="Sex" comment="White cell color: Sex was checked in the CT volume. Yellow cell color: Sex was taken from the metadata.">VSD_Subjects!$D$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -229,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -246,6 +246,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,12 +590,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -600,7 +605,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1034,7 +1039,7 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="5">
@@ -1051,7 +1056,7 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="5">
@@ -1068,7 +1073,7 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="5">
@@ -1081,7 +1086,7 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="5">
@@ -1094,7 +1099,7 @@
       <c r="F31" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:F27" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="B2:F31" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F27">
       <sortCondition ref="B2:B27"/>
     </sortState>

--- a/MATLAB/res/VSD_SubjectsFromJSON.xlsx
+++ b/MATLAB/res/VSD_SubjectsFromJSON.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9A0A7C-1590-4429-A0BD-904725C91B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="true" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E6DA60-2BEF-4AA8-9BE0-4A530DF2C2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="VSD_Subjects" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VSD_Subjects!$B$2:$F$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">VSD_Subjects!$B$2:$F$31</definedName>
     <definedName name="Sex" comment="White cell color: Sex was checked in the CT volume. Yellow cell color: Sex was taken from the metadata.">VSD_Subjects!$D$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="95">
   <si>
     <t>Age</t>
   </si>
@@ -124,6 +124,9 @@
     <t>z061</t>
   </si>
   <si>
+    <t>z063</t>
+  </si>
+  <si>
     <t>z062</t>
   </si>
   <si>
@@ -131,6 +134,144 @@
   </si>
   <si>
     <t>z066</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>z001</t>
+  </si>
+  <si>
+    <t>z004</t>
+  </si>
+  <si>
+    <t>z009</t>
+  </si>
+  <si>
+    <t>z013</t>
+  </si>
+  <si>
+    <t>z019</t>
+  </si>
+  <si>
+    <t>z023</t>
+  </si>
+  <si>
+    <t>z027</t>
+  </si>
+  <si>
+    <t>z035</t>
+  </si>
+  <si>
+    <t>z036</t>
+  </si>
+  <si>
+    <t>z042</t>
+  </si>
+  <si>
+    <t>z046</t>
+  </si>
+  <si>
+    <t>z049</t>
+  </si>
+  <si>
+    <t>z050</t>
+  </si>
+  <si>
+    <t>z055</t>
+  </si>
+  <si>
+    <t>z056</t>
+  </si>
+  <si>
+    <t>z057</t>
+  </si>
+  <si>
+    <t>z061</t>
+  </si>
+  <si>
+    <t>z062</t>
+  </si>
+  <si>
+    <t>z063</t>
+  </si>
+  <si>
+    <t>z064</t>
+  </si>
+  <si>
+    <t>z066</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
   <si>
     <t>F</t>
@@ -202,7 +343,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -225,31 +366,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,23 +731,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F31"/>
+  <dimension ref="B2:F32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView showGridLines="false" tabSelected="true" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="true"/>
+    <col min="2" max="2" width="5" style="7" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="3.140625" style="6" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="2.85546875" style="6" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="5.7109375" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="4.7109375" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
@@ -621,32 +762,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C3" s="5">
         <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1">
         <v>75</v>
       </c>
       <c r="F3" s="1">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1.6200000000000001</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C4" s="5">
         <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="E4" s="1">
         <v>90</v>
@@ -655,49 +796,49 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C5" s="5">
         <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="E5" s="1">
         <v>54</v>
       </c>
       <c r="F5" s="1">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1.6499999999999999</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C6" s="5">
         <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1">
         <v>65</v>
       </c>
       <c r="F6" s="1">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1.6499999999999999</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C7" s="5">
         <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="E7" s="1">
         <v>78</v>
@@ -706,15 +847,15 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C8" s="5">
         <v>95</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="E8" s="1">
         <v>60</v>
@@ -723,15 +864,15 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C9" s="5">
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="E9" s="1">
         <v>59</v>
@@ -740,15 +881,15 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C10" s="5">
         <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E10" s="1">
         <v>68</v>
@@ -757,32 +898,32 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C11" s="5">
         <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E11" s="1">
         <v>86</v>
       </c>
       <c r="F11" s="1">
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1.8200000000000001</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C12" s="5">
         <v>76</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E12" s="1">
         <v>87</v>
@@ -791,32 +932,32 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C13" s="5">
         <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E13" s="1">
-        <v>82.3</v>
+        <v>82.299999999999997</v>
       </c>
       <c r="F13" s="1">
         <v>1.77</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C14" s="5">
         <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E14" s="1">
         <v>74</v>
@@ -825,130 +966,130 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C15" s="5">
         <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E15" s="1">
-        <v>56.3</v>
+        <v>56.299999999999997</v>
       </c>
       <c r="F15" s="1">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1.6499999999999999</v>
+      </c>
+    </row>
+    <row r="16" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C16" s="5">
         <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="E16" s="1">
-        <v>71.3</v>
+        <v>71.299999999999997</v>
       </c>
       <c r="F16" s="1">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1.8100000000000001</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="C17" s="5">
         <v>47</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E17" s="1">
         <v>61</v>
       </c>
       <c r="F17" s="1">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1.6599999999999999</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C18" s="5">
         <v>37</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E18" s="1">
         <v>51.5</v>
       </c>
       <c r="F18" s="1">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1.6899999999999999</v>
+      </c>
+    </row>
+    <row r="19" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C19" s="5">
         <v>30</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E19" s="1">
-        <v>50.45</v>
+        <v>50.450000000000003</v>
       </c>
       <c r="F19" s="1">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1.6799999999999999</v>
+      </c>
+    </row>
+    <row r="20" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C20" s="5">
         <v>62</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C21" s="5">
         <v>61</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="E21" s="1">
-        <v>53.4</v>
+        <v>53.399999999999999</v>
       </c>
       <c r="F21" s="1">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1.6899999999999999</v>
+      </c>
+    </row>
+    <row r="22" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C22" s="5">
         <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E22" s="1">
         <v>72</v>
@@ -957,15 +1098,15 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C23" s="5">
         <v>34</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="E23" s="1">
         <v>87</v>
@@ -974,32 +1115,32 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C24" s="5">
         <v>84</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E24" s="1">
         <v>73.400000000000006</v>
       </c>
       <c r="F24" s="1">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1.6699999999999999</v>
+      </c>
+    </row>
+    <row r="25" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C25" s="5">
         <v>73</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E25" s="1">
         <v>73</v>
@@ -1008,103 +1149,120 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C26" s="5">
         <v>26</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E26" s="1">
-        <v>81.8</v>
+        <v>81.799999999999997</v>
       </c>
       <c r="F26" s="1">
-        <v>1.87</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1.8700000000000001</v>
+      </c>
+    </row>
+    <row r="27" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C27" s="5">
         <v>75</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C28" s="5">
         <v>39</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="E28" s="1">
-        <v>37.4</v>
+        <v>37.399999999999999</v>
       </c>
       <c r="F28" s="1">
         <v>1.8</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="C29" s="5">
         <v>43</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="E29" s="1">
-        <v>76.95</v>
+        <v>76.950000000000003</v>
       </c>
       <c r="F29" s="1">
         <v>1.77</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C30" s="5">
+        <v>72</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="1">
+        <v>80.200000000000003</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="31" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="5">
         <v>69</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="5">
-        <v>48</v>
-      </c>
       <c r="D31" s="5" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
+    <row r="32" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="5">
+        <v>48</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="B2:F31" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F27">
+    <sortState ref="B3:F27">
       <sortCondition ref="B2:B27"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:F27">
+  <sortState ref="B9:F27">
     <sortCondition ref="B9:B18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
